--- a/DbLayouts/L2-業務作業/FacShareAppl.xlsx
+++ b/DbLayouts/L2-業務作業/FacShareAppl.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,11 +16,20 @@
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>備註說明</t>
   </si>
@@ -143,10 +152,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>共同借款人資料檔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FacmNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,10 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FacShareAppl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主核准號碼(登錄順序=1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,6 +226,22 @@
   <si>
     <t>findMainApplNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mApplNoFirst</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeyinSeq DESC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FacShareAppl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共同借款人資料檔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -792,7 +809,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -812,10 +829,10 @@
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="10" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="16"/>
@@ -840,7 +857,7 @@
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>19</v>
@@ -943,10 +960,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>28</v>
@@ -962,10 +979,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>28</v>
@@ -981,10 +998,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>28</v>
@@ -1000,10 +1017,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>28</v>
@@ -1019,10 +1036,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>28</v>
@@ -1039,10 +1056,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>29</v>
@@ -1052,7 +1069,7 @@
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1157,11 +1174,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1185,13 +1202,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1199,10 +1216,21 @@
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
